--- a/ExtendedData/ED_Table7_values.xlsx
+++ b/ExtendedData/ED_Table7_values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Documents\GitHub\BlueDICE\ExtendedData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90583848-653A-4A94-B7EE-5664EB27B352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84342694-C80F-4668-A336-D2BBBC020B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{21872B60-A017-47DC-ACC6-FC5A7359AE45}"/>
+    <workbookView xWindow="-29355" yWindow="6000" windowWidth="22800" windowHeight="9990" xr2:uid="{21872B60-A017-47DC-ACC6-FC5A7359AE45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Market</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Ports</t>
+  </si>
+  <si>
+    <t>Table S13. Benefits of blue capital</t>
   </si>
 </sst>
 </file>
@@ -565,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F021C3F1-C30B-4BAF-AB5A-A0049547CE5E}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -579,180 +582,185 @@
     <col min="5" max="5" width="19.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="2" t="s">
+    <row r="3" spans="1:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="12">
+    <row r="4" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="12">
         <v>2030</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C4" s="7">
         <v>66.5</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D4" s="7">
         <v>22.9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E4" s="7">
         <v>7.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="13"/>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1.69</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="13"/>
       <c r="B5" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="8">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="D5" s="8">
-        <v>0.02</v>
+        <v>1.69</v>
       </c>
       <c r="E5" s="8">
-        <v>4.8899999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="55.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="13"/>
       <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27.9" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="13"/>
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C7" s="8">
         <v>1.7</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="8">
         <v>21.2</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="14"/>
-      <c r="B7" s="8" t="s">
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="14"/>
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C8" s="8">
         <v>62.2</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="12">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="12">
         <v>2100</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="7">
         <v>2363</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <v>884</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <v>447</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="13"/>
-      <c r="B9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8">
-        <v>23.5</v>
-      </c>
-      <c r="D9" s="8">
-        <v>30.4</v>
-      </c>
-      <c r="E9" s="8">
-        <v>48.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="27.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="13"/>
       <c r="B10" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="8">
-        <v>59.4</v>
+        <v>23.5</v>
       </c>
       <c r="D10" s="8">
-        <v>0.69</v>
+        <v>30.4</v>
       </c>
       <c r="E10" s="8">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="55.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="13"/>
       <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
+        <v>59.4</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="E11" s="8">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="27.9" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="13"/>
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C12" s="8">
         <v>93.9</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="8">
         <v>853</v>
       </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="14"/>
-      <c r="B12" s="8" t="s">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="14"/>
+      <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C13" s="8">
         <v>2186</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
